--- a/biology/Écologie/Patrick_Gillet/Patrick_Gillet.xlsx
+++ b/biology/Écologie/Patrick_Gillet/Patrick_Gillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Gillet, né le 4 avril 1956 à Soisy-sous-Montmorency, est un océanographe, professeur des universités, homme de sciences et de lettres, romancier et poète français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Gillet né à Soisy-sous-Montmorency.
 Élève du lycée Pothier puis étudiant à l'université d'Orléans, professeur au lycée Akensous à Essaouira puis à l’École normale supérieure de Rabat au titre de la coopération française au Maroc.
@@ -547,7 +561,9 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Après une thèse sur les annélides polychètes de l’estuaire du Bou Regreg (Maroc) en 1986, Patrick Gillet poursuit ses recherches sur les annélides polychètes.
@@ -583,10 +599,12 @@
           <t>Programmes de recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>"Programme Facilité Eau" 7e PCRD UNESCO Projet Niger Loire
-"Programme REMER" Étude des annélides polychètes de la côte atlantique marocaine[1]
+"Programme REMER" Étude des annélides polychètes de la côte atlantique marocaine
 "Programme RS2E" Fonctionnement biogéochimique de l’estuaire de la Loire : qualité de la faune benthique et bioturbation
 "Programme BIOMAR" Biodiversité des substrats rocheux du littoral de la région d’Essaouira-Safi, Maroc
 "Programme ECOTONES" Effets des contaminants sur les organismes de l’estuaire de la Seine</t>
@@ -617,7 +635,9 @@
           <t>Publications scientifiques récentes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>avec Métais I. Chatel A. Mouloud M. Perrein-Ettajani H.Bruneau M. Jrad N. Mouneyrac C. .: Is there a link between acetylcholinesterase, behavior and density populations of the ragworm Hediste diversicolor ? , Marine Pollution Bulletin, (2019).
 avec Chouikh N. Langton W. Cheggour M. Maarouf A. Mouabad A: First investigations on the composition and spatial distribution of polychaete feeding guilds of Essaouira protected coastal area (Atlantic coast of Morocco), Applied Ecology and Environmental Research, (2019).
@@ -633,7 +653,7 @@
 avec Fossi  Tankoua  O. Buffet P.e. Amiard J.c. Amiard-triquet C. Mouneyrac C. Berthet B. : Intersite variations of a battery of biomarkers at different levels of biological organisation in the endobenthic worm Nereis diversicolor, Polychaeta, Nereididae, 2012, p. 114-115,96-103.
 avec Mouloud, M., Mouneyrac, C., Simo, P., Gilbert, F : Premilary data on the bioturbation activity of Hediste diversicolor, Polychaeta, Nereididae, (2012), p. 53-56.
 avec Sif, J., Rouhi, A., Moncef, M. : Biodiversité et écologie des annélides polychètes du littoral atlantique de la région d’El Jadida, Maroc, Bulletin de l’Institut Scientifique de Rabat, (2012), 34 p. 95-106.
-avec Amiard-Triquet C., Rainbow, P.S., :Environmental Assessment of Estuarine Ecosystems: A Case Study, CRC Press, Taylor and Francis Group, 2009[2].</t>
+avec Amiard-Triquet C., Rainbow, P.S., :Environmental Assessment of Estuarine Ecosystems: A Case Study, CRC Press, Taylor and Francis Group, 2009.</t>
         </is>
       </c>
     </row>
@@ -663,9 +683,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Aphorismes
-Cent pensées sur le monde flottant... (Sinope, 2022).
-Haïkus
+          <t>Aphorismes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cent pensées sur le monde flottant... (Sinope, 2022).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Haïkus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Indiens d'Amérique, photographies Martine Roulet (Le Petit Véhicule, 2022)
 Banquise : haïkus pour les enfants, illustrations Toni Demuro (Un chat la nuit, 2021)
 Océans, gravures Michèle Quélard (Le Petit Véhicule, 2021)
@@ -680,9 +741,79 @@
 Écrire des haïkus (Écrire aujourd’hui, 2015)
 Miroir de Loire photographies de Yannick Le Boulicaut (Patrimoines &amp; Médias, 2014)
 Bruissements de plume dessins de Gérard Loup (Pippa, 2014) (ISBN 978-2916506524)
-Haïbuns/Nouvelles
-La sente en pente douce (Stellamaris, 2018)  (ISBN 978-2-36868-499-3)
-Romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Haïbuns/Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La sente en pente douce (Stellamaris, 2018)  (ISBN 978-2-36868-499-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le chat porte-bonheur, (Le Lys Bleu, 2021)  (ISBN 9 791 037 73 1166)
 Le jardin de sable, (Illador, 2020)
 Le mystère du code Voynich (Anfortas, 2019)  (ISBN 978-2-37522-068-9)
@@ -691,7 +822,43 @@
 La terre des bogolans (Vents Salés, 2010)  (ISBN 978-2-35452-032-8)
 Fils du vent (Les 2 Encres, 2009)  (ISBN 978-2-35168-139-8)
 La néréide (Bénévent, 2008)
-Ouvrages collectifs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans la forêt profonde, on entend le haïku (Pippa, 2019)
 Un haïku pour le climat (L'iroli, 2018)
 Le haïku à la lumière du braille (Renée Clairon, 2018)
@@ -711,31 +878,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Patrick_Gillet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lauréat Concours International le haïku à la lumière du braille, 2018
@@ -747,35 +916,37 @@
 2e Prix Europoésie, 2013
 Prix d’honneur Terpsichore, 2012
 [réf. nécessaire]
-2e Prix International Haiku Contest, Mainichi, Japon, 2012[3], 2014[4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Patrick_Gillet</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+2e Prix International Haiku Contest, Mainichi, Japon, 2012, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Gillet</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Officier de l'ordre des Palmes académiques
